--- a/resources/views/document_torg12.xlsx
+++ b/resources/views/document_torg12.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="90">
   <si>
     <t xml:space="preserve">Унифицированная форма № ТОРГ-12
 Утверждена постановлением Госкомстата России от 25.12.98 № 132</t>
@@ -191,10 +191,16 @@
     <t xml:space="preserve">пог.м</t>
   </si>
   <si>
+    <t xml:space="preserve">{{ items.mountPlaces }}</t>
+  </si>
+  <si>
     <t xml:space="preserve">{{ items.mount }}</t>
   </si>
   <si>
     <t xml:space="preserve">{{ items.price }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{ items.totalPrice }}</t>
   </si>
   <si>
     <t xml:space="preserve">Итого</t>
@@ -316,7 +322,7 @@
     <numFmt numFmtId="170" formatCode="#,##0.00"/>
     <numFmt numFmtId="171" formatCode="0\%"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -375,6 +381,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -756,7 +767,7 @@
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -768,7 +779,7 @@
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -780,7 +791,7 @@
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -876,11 +887,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -919,8 +930,8 @@
   </sheetPr>
   <dimension ref="A1:AO48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M16" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H13" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1818,21 +1829,23 @@
       <c r="N23" s="39"/>
       <c r="O23" s="40"/>
       <c r="P23" s="41"/>
-      <c r="Q23" s="42"/>
+      <c r="Q23" s="42" t="s">
+        <v>51</v>
+      </c>
       <c r="R23" s="39"/>
       <c r="S23" s="40"/>
       <c r="T23" s="40"/>
       <c r="U23" s="41"/>
       <c r="V23" s="43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W23" s="43"/>
       <c r="X23" s="44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y23" s="44"/>
-      <c r="Z23" s="45" t="n">
-        <v>7500</v>
+      <c r="Z23" s="45" t="s">
+        <v>54</v>
       </c>
       <c r="AA23" s="45"/>
       <c r="AB23" s="45"/>
@@ -1849,8 +1862,8 @@
       </c>
       <c r="AJ23" s="47"/>
       <c r="AK23" s="47"/>
-      <c r="AL23" s="48" t="n">
-        <v>8850</v>
+      <c r="AL23" s="48" t="s">
+        <v>54</v>
       </c>
       <c r="AM23" s="48"/>
       <c r="AN23" s="48"/>
@@ -1872,7 +1885,7 @@
       <c r="N24" s="50"/>
       <c r="O24" s="50"/>
       <c r="P24" s="50" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q24" s="51"/>
       <c r="R24" s="51"/>
@@ -1884,7 +1897,7 @@
       </c>
       <c r="W24" s="53"/>
       <c r="X24" s="54" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y24" s="54"/>
       <c r="Z24" s="55" t="n">
@@ -1895,7 +1908,7 @@
       <c r="AC24" s="55"/>
       <c r="AD24" s="55"/>
       <c r="AE24" s="56" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AF24" s="56"/>
       <c r="AG24" s="56"/>
@@ -1928,7 +1941,7 @@
       <c r="N25" s="58"/>
       <c r="O25" s="58"/>
       <c r="P25" s="58" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q25" s="59"/>
       <c r="R25" s="60"/>
@@ -1940,7 +1953,7 @@
       </c>
       <c r="W25" s="63"/>
       <c r="X25" s="64" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y25" s="64"/>
       <c r="Z25" s="65" t="n">
@@ -1951,7 +1964,7 @@
       <c r="AC25" s="65"/>
       <c r="AD25" s="65"/>
       <c r="AE25" s="64" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AF25" s="64"/>
       <c r="AG25" s="64"/>
@@ -1970,7 +1983,7 @@
     </row>
     <row r="26" customFormat="false" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E26" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -1988,10 +2001,10 @@
     </row>
     <row r="27" customFormat="false" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E27" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -2012,12 +2025,12 @@
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F28" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -2050,7 +2063,7 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="J29" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
@@ -2078,7 +2091,7 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="T30" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
@@ -2102,13 +2115,13 @@
     </row>
     <row r="31" s="1" customFormat="true" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E31" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="J31" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="T31" s="7"/>
       <c r="U31" s="69"/>
@@ -2134,13 +2147,13 @@
     </row>
     <row r="32" s="1" customFormat="true" ht="8.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F32" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="10"/>
       <c r="T32" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U32" s="11"/>
       <c r="V32" s="11"/>
@@ -2158,24 +2171,24 @@
     <row r="33" s="1" customFormat="true" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="34" s="1" customFormat="true" ht="8.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="J34" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="S34" s="70"/>
       <c r="W34" s="58"/>
       <c r="X34" s="58" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7"/>
       <c r="AC34" s="71" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AD34" s="71"/>
       <c r="AE34" s="71"/>
@@ -2191,7 +2204,7 @@
     </row>
     <row r="35" s="1" customFormat="true" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G35" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
@@ -2199,7 +2212,7 @@
     </row>
     <row r="36" s="1" customFormat="true" ht="9.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="72" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C36" s="72"/>
       <c r="D36" s="72"/>
@@ -2207,7 +2220,7 @@
       <c r="H36" s="72"/>
       <c r="S36" s="70"/>
       <c r="U36" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
@@ -2228,7 +2241,7 @@
     </row>
     <row r="37" s="1" customFormat="true" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="73" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C37" s="73"/>
       <c r="D37" s="73"/>
@@ -2248,7 +2261,7 @@
       <c r="R37" s="73"/>
       <c r="S37" s="73"/>
       <c r="Y37" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Z37" s="11"/>
       <c r="AA37" s="11"/>
@@ -2268,7 +2281,7 @@
     </row>
     <row r="38" s="1" customFormat="true" ht="9.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -2303,15 +2316,15 @@
     </row>
     <row r="39" customFormat="false" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E39" s="74" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="J39" s="75" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K39" s="75"/>
       <c r="L39" s="75"/>
@@ -2341,14 +2354,14 @@
     </row>
     <row r="40" s="1" customFormat="true" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E40" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H40" s="11"/>
       <c r="J40" s="76" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K40" s="76"/>
       <c r="L40" s="76"/>
@@ -2362,14 +2375,14 @@
     </row>
     <row r="41" s="1" customFormat="true" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="72" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C41" s="72"/>
       <c r="D41" s="72"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="J41" s="75" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K41" s="75"/>
       <c r="L41" s="75"/>
@@ -2381,7 +2394,7 @@
       <c r="R41" s="75"/>
       <c r="S41" s="75"/>
       <c r="U41" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
@@ -2400,11 +2413,11 @@
     </row>
     <row r="42" s="1" customFormat="true" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G42" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H42" s="11"/>
       <c r="J42" s="76" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K42" s="76"/>
       <c r="L42" s="76"/>
@@ -2416,18 +2429,18 @@
       <c r="R42" s="76"/>
       <c r="S42" s="76"/>
       <c r="Y42" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z42" s="11"/>
       <c r="AB42" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC42" s="11"/>
       <c r="AD42" s="11"/>
       <c r="AE42" s="11"/>
       <c r="AF42" s="11"/>
       <c r="AH42" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI42" s="11"/>
       <c r="AJ42" s="11"/>
@@ -2438,7 +2451,7 @@
     </row>
     <row r="43" s="1" customFormat="true" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E43" s="5"/>
       <c r="G43" s="7"/>
@@ -2454,7 +2467,7 @@
       <c r="R43" s="75"/>
       <c r="S43" s="75"/>
       <c r="U43" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Y43" s="7"/>
       <c r="Z43" s="7"/>
@@ -2473,14 +2486,14 @@
     </row>
     <row r="44" customFormat="false" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E44" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H44" s="11"/>
       <c r="J44" s="76" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K44" s="76"/>
       <c r="L44" s="76"/>
@@ -2492,22 +2505,22 @@
       <c r="R44" s="76"/>
       <c r="S44" s="76"/>
       <c r="U44" s="77" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="V44" s="77"/>
       <c r="Y44" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Z44" s="11"/>
       <c r="AB44" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AC44" s="11"/>
       <c r="AD44" s="11"/>
       <c r="AE44" s="11"/>
       <c r="AF44" s="11"/>
       <c r="AH44" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI44" s="11"/>
       <c r="AJ44" s="11"/>
@@ -2523,25 +2536,25 @@
       <c r="B46" s="58"/>
       <c r="C46" s="58"/>
       <c r="D46" s="58" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F46" s="58" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S46" s="70"/>
       <c r="W46" s="71" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="X46" s="71"/>
       <c r="AA46" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/resources/views/document_torg12.xlsx
+++ b/resources/views/document_torg12.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t xml:space="preserve">Унифицированная форма № ТОРГ-12
 Утверждена постановлением Госкомстата России от 25.12.98 № 132</t>
@@ -29,7 +29,7 @@
     <t xml:space="preserve">Коды</t>
   </si>
   <si>
-    <t xml:space="preserve">ООО "ВАСИЛЕК", ИНН 7720722946, 105187, Москва г, Вольная ул, дом № 50, , р/с 40702810100160000637, в банке ПАО "МОСКОВСКИЙ КРЕДИТНЫЙ БАНК", БИК 044525659, к/с 30101810745250000659</t>
+    <t xml:space="preserve">{{ ГРУЗООТПРАВИТЕЛЬ }}</t>
   </si>
   <si>
     <t xml:space="preserve">Форма по ОКУД</t>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">Грузополучатель</t>
   </si>
   <si>
-    <t xml:space="preserve">ООО "ЛАГУНА", ИНН 7729069777, 141031, Московская обл, Мытищинский р-н, Мытищи г, ЛЕНИНГРАДСКОЕ ш, дом № 20,, р/с 20002810100020003700, в банке КРЕДИ АГРИКОЛЬ КИБ АО (МОСКОВСКИЙ ФИЛИАЛ), БИК 044583843, к/с 30101810400000000876</t>
+    <t xml:space="preserve">{{ ГРУЗОПОЛУЧАТЕЛЬ }}</t>
   </si>
   <si>
     <t xml:space="preserve">организация, адрес, телефон, факс, банковские реквизиты</t>
@@ -59,12 +59,15 @@
     <t xml:space="preserve">Поставщик</t>
   </si>
   <si>
-    <t xml:space="preserve">ООО "ВАСИЛЕК", ИНН 7720722946, 105187, Москва г, Вольная ул, дом № 50,  тел.:, р/с 00002810100160000640, в банке ПАО "МОСКОВСКИЙ КРЕДИТНЫЙ БАНК", БИК 044525659, к/с 30101810745250000659</t>
+    <t xml:space="preserve">{{ ПОСТАВЩИК }}</t>
   </si>
   <si>
     <t xml:space="preserve">Плательщик</t>
   </si>
   <si>
+    <t xml:space="preserve">{{ ПЛАТЕЛЬЩИК }}</t>
+  </si>
+  <si>
     <t xml:space="preserve">номер</t>
   </si>
   <si>
@@ -80,7 +83,7 @@
     <t xml:space="preserve">дата</t>
   </si>
   <si>
-    <t xml:space="preserve">06.07.2016</t>
+    <t xml:space="preserve">{{ ДАТА }}</t>
   </si>
   <si>
     <t xml:space="preserve">Номер документа</t>
@@ -188,7 +191,7 @@
     <t xml:space="preserve">00000003737</t>
   </si>
   <si>
-    <t xml:space="preserve">пог.м</t>
+    <t xml:space="preserve">{{ items.sou }}</t>
   </si>
   <si>
     <t xml:space="preserve">{{ items.mountPlaces }}</t>
@@ -254,7 +257,7 @@
     <t xml:space="preserve">выданной</t>
   </si>
   <si>
-    <t xml:space="preserve">Двадцать шесть тысяч пятьсот пятьдесят рублей 00 копеек</t>
+    <t xml:space="preserve">{{ ПОЛНАЯ_СУММА }}</t>
   </si>
   <si>
     <t xml:space="preserve">кем, кому (организация, должность, фамилия, и. о.)</t>
@@ -296,13 +299,16 @@
     <t xml:space="preserve">М.П.</t>
   </si>
   <si>
+    <t xml:space="preserve">{{ ДЕНЬ }}</t>
+  </si>
+  <si>
     <t xml:space="preserve">"12"</t>
   </si>
   <si>
-    <t xml:space="preserve">июля</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016 года</t>
+    <t xml:space="preserve">{{ МЕСЯЦ_Р }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{ ГОД }} года</t>
   </si>
   <si>
     <t xml:space="preserve">"     " _____________ 20     года</t>
@@ -322,7 +328,7 @@
     <numFmt numFmtId="170" formatCode="#,##0.00"/>
     <numFmt numFmtId="171" formatCode="0\%"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -381,11 +387,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -791,7 +792,7 @@
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -887,11 +888,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -930,41 +931,41 @@
   </sheetPr>
   <dimension ref="A1:AO48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H13" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="2.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="2.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.44"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="1" width="1.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="5.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="2.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="1.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="0.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="7.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="7.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="6.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="5.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="0.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="5.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="1.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="9.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="4.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="1.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="6.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="0.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="1" width="2.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="2.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="2.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="3.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="1" width="3.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="5.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="8.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="2.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="1.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="4.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="0.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="2.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="0.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="0.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="7.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="0.83"/>
@@ -1219,7 +1220,7 @@
       </c>
       <c r="AM7" s="15"/>
     </row>
-    <row r="8" s="1" customFormat="true" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" s="1" customFormat="true" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="16" t="s">
         <v>8</v>
       </c>
@@ -1377,13 +1378,13 @@
       <c r="AL11" s="8"/>
       <c r="AM11" s="18"/>
     </row>
-    <row r="12" s="1" customFormat="true" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" s="1" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1452,7 +1453,7 @@
       <c r="AB13" s="11"/>
       <c r="AC13" s="11"/>
       <c r="AK13" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL13" s="19"/>
       <c r="AM13" s="9" t="n">
@@ -1462,10 +1463,10 @@
     <row r="14" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -1504,7 +1505,7 @@
     </row>
     <row r="15" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D15" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -1532,22 +1533,22 @@
       <c r="AB15" s="11"/>
       <c r="AC15" s="11"/>
       <c r="AK15" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL15" s="19"/>
       <c r="AM15" s="18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="K16" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
@@ -1558,10 +1559,10 @@
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
       <c r="AI16" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK16" s="19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL16" s="19"/>
       <c r="AM16" s="18"/>
@@ -1574,22 +1575,22 @@
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
       <c r="J17" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L17" s="24"/>
       <c r="M17" s="24"/>
       <c r="N17" s="24"/>
       <c r="O17" s="25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P17" s="25"/>
       <c r="Q17" s="25"/>
       <c r="R17" s="25"/>
       <c r="AK17" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL17" s="19"/>
       <c r="AM17" s="18"/>
@@ -1597,7 +1598,7 @@
     <row r="18" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="AK18" s="8"/>
       <c r="AL18" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM18" s="26"/>
     </row>
@@ -1606,59 +1607,59 @@
       <c r="AM19" s="28"/>
       <c r="AN19" s="28"/>
       <c r="AO19" s="28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" s="27" customFormat="true" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S20" s="29"/>
       <c r="T20" s="29"/>
       <c r="U20" s="29"/>
       <c r="V20" s="29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W20" s="29"/>
       <c r="X20" s="29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y20" s="29"/>
       <c r="Z20" s="29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA20" s="29"/>
       <c r="AB20" s="29"/>
       <c r="AC20" s="29"/>
       <c r="AD20" s="29"/>
       <c r="AE20" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
@@ -1667,7 +1668,7 @@
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
       <c r="AL20" s="29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AM20" s="29"/>
       <c r="AN20" s="29"/>
@@ -1676,31 +1677,31 @@
     <row r="21" s="27" customFormat="true" ht="44.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="29"/>
       <c r="C21" s="29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
       <c r="G21" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
       <c r="L21" s="29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M21" s="29"/>
       <c r="N21" s="29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O21" s="29"/>
       <c r="P21" s="29"/>
       <c r="Q21" s="29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R21" s="29"/>
       <c r="S21" s="29"/>
@@ -1716,13 +1717,13 @@
       <c r="AC21" s="29"/>
       <c r="AD21" s="29"/>
       <c r="AE21" s="29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AF21" s="29"/>
       <c r="AG21" s="29"/>
       <c r="AH21" s="29"/>
       <c r="AI21" s="29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AJ21" s="29"/>
       <c r="AK21" s="29"/>
@@ -1805,19 +1806,19 @@
     </row>
     <row r="23" s="27" customFormat="true" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D23" s="34"/>
       <c r="E23" s="34"/>
       <c r="F23" s="34"/>
       <c r="G23" s="35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I23" s="36"/>
       <c r="J23" s="36"/>
@@ -1830,22 +1831,22 @@
       <c r="O23" s="40"/>
       <c r="P23" s="41"/>
       <c r="Q23" s="42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R23" s="39"/>
       <c r="S23" s="40"/>
       <c r="T23" s="40"/>
       <c r="U23" s="41"/>
       <c r="V23" s="43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="W23" s="43"/>
       <c r="X23" s="44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y23" s="44"/>
       <c r="Z23" s="45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA23" s="45"/>
       <c r="AB23" s="45"/>
@@ -1863,7 +1864,7 @@
       <c r="AJ23" s="47"/>
       <c r="AK23" s="47"/>
       <c r="AL23" s="48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AM23" s="48"/>
       <c r="AN23" s="48"/>
@@ -1885,7 +1886,7 @@
       <c r="N24" s="50"/>
       <c r="O24" s="50"/>
       <c r="P24" s="50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q24" s="51"/>
       <c r="R24" s="51"/>
@@ -1897,7 +1898,7 @@
       </c>
       <c r="W24" s="53"/>
       <c r="X24" s="54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y24" s="54"/>
       <c r="Z24" s="55" t="n">
@@ -1908,7 +1909,7 @@
       <c r="AC24" s="55"/>
       <c r="AD24" s="55"/>
       <c r="AE24" s="56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF24" s="56"/>
       <c r="AG24" s="56"/>
@@ -1941,7 +1942,7 @@
       <c r="N25" s="58"/>
       <c r="O25" s="58"/>
       <c r="P25" s="58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q25" s="59"/>
       <c r="R25" s="60"/>
@@ -1953,7 +1954,7 @@
       </c>
       <c r="W25" s="63"/>
       <c r="X25" s="64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y25" s="64"/>
       <c r="Z25" s="65" t="n">
@@ -1964,7 +1965,7 @@
       <c r="AC25" s="65"/>
       <c r="AD25" s="65"/>
       <c r="AE25" s="64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF25" s="64"/>
       <c r="AG25" s="64"/>
@@ -1983,7 +1984,7 @@
     </row>
     <row r="26" customFormat="false" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -2001,10 +2002,10 @@
     </row>
     <row r="27" customFormat="false" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E27" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -2025,12 +2026,12 @@
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F28" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -2063,7 +2064,7 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="J29" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
@@ -2091,7 +2092,7 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="T30" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
@@ -2115,13 +2116,13 @@
     </row>
     <row r="31" s="1" customFormat="true" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E31" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="J31" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T31" s="7"/>
       <c r="U31" s="69"/>
@@ -2147,13 +2148,13 @@
     </row>
     <row r="32" s="1" customFormat="true" ht="8.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F32" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="10"/>
       <c r="T32" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U32" s="11"/>
       <c r="V32" s="11"/>
@@ -2169,26 +2170,26 @@
       <c r="AF32" s="11"/>
     </row>
     <row r="33" s="1" customFormat="true" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="34" s="1" customFormat="true" ht="8.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" s="1" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="J34" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S34" s="70"/>
       <c r="W34" s="58"/>
       <c r="X34" s="58" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7"/>
       <c r="AC34" s="71" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD34" s="71"/>
       <c r="AE34" s="71"/>
@@ -2202,9 +2203,9 @@
       <c r="AM34" s="7"/>
       <c r="AN34" s="7"/>
     </row>
-    <row r="35" s="1" customFormat="true" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" s="1" customFormat="true" ht="8.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G35" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
@@ -2212,7 +2213,7 @@
     </row>
     <row r="36" s="1" customFormat="true" ht="9.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="72" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C36" s="72"/>
       <c r="D36" s="72"/>
@@ -2220,7 +2221,7 @@
       <c r="H36" s="72"/>
       <c r="S36" s="70"/>
       <c r="U36" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
@@ -2241,7 +2242,7 @@
     </row>
     <row r="37" s="1" customFormat="true" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C37" s="73"/>
       <c r="D37" s="73"/>
@@ -2261,7 +2262,7 @@
       <c r="R37" s="73"/>
       <c r="S37" s="73"/>
       <c r="Y37" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z37" s="11"/>
       <c r="AA37" s="11"/>
@@ -2281,7 +2282,7 @@
     </row>
     <row r="38" s="1" customFormat="true" ht="9.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -2316,15 +2317,15 @@
     </row>
     <row r="39" customFormat="false" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E39" s="74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="J39" s="75" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K39" s="75"/>
       <c r="L39" s="75"/>
@@ -2354,14 +2355,14 @@
     </row>
     <row r="40" s="1" customFormat="true" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E40" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H40" s="11"/>
       <c r="J40" s="76" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K40" s="76"/>
       <c r="L40" s="76"/>
@@ -2375,14 +2376,14 @@
     </row>
     <row r="41" s="1" customFormat="true" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="72" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C41" s="72"/>
       <c r="D41" s="72"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
       <c r="J41" s="75" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K41" s="75"/>
       <c r="L41" s="75"/>
@@ -2394,7 +2395,7 @@
       <c r="R41" s="75"/>
       <c r="S41" s="75"/>
       <c r="U41" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
@@ -2413,11 +2414,11 @@
     </row>
     <row r="42" s="1" customFormat="true" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G42" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H42" s="11"/>
       <c r="J42" s="76" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K42" s="76"/>
       <c r="L42" s="76"/>
@@ -2429,18 +2430,18 @@
       <c r="R42" s="76"/>
       <c r="S42" s="76"/>
       <c r="Y42" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z42" s="11"/>
       <c r="AB42" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC42" s="11"/>
       <c r="AD42" s="11"/>
       <c r="AE42" s="11"/>
       <c r="AF42" s="11"/>
       <c r="AH42" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI42" s="11"/>
       <c r="AJ42" s="11"/>
@@ -2451,7 +2452,7 @@
     </row>
     <row r="43" s="1" customFormat="true" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E43" s="5"/>
       <c r="G43" s="7"/>
@@ -2467,7 +2468,7 @@
       <c r="R43" s="75"/>
       <c r="S43" s="75"/>
       <c r="U43" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y43" s="7"/>
       <c r="Z43" s="7"/>
@@ -2486,14 +2487,14 @@
     </row>
     <row r="44" customFormat="false" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E44" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H44" s="11"/>
       <c r="J44" s="76" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K44" s="76"/>
       <c r="L44" s="76"/>
@@ -2505,22 +2506,22 @@
       <c r="R44" s="76"/>
       <c r="S44" s="76"/>
       <c r="U44" s="77" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V44" s="77"/>
       <c r="Y44" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z44" s="11"/>
       <c r="AB44" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC44" s="11"/>
       <c r="AD44" s="11"/>
       <c r="AE44" s="11"/>
       <c r="AF44" s="11"/>
       <c r="AH44" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI44" s="11"/>
       <c r="AJ44" s="11"/>
@@ -2536,25 +2537,28 @@
       <c r="B46" s="58"/>
       <c r="C46" s="58"/>
       <c r="D46" s="58" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="E46" s="58" t="s">
+        <v>87</v>
       </c>
       <c r="F46" s="58" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="S46" s="70"/>
       <c r="W46" s="71" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X46" s="71"/>
       <c r="AA46" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/resources/views/document_torg12.xlsx
+++ b/resources/views/document_torg12.xlsx
@@ -197,7 +197,7 @@
     <t xml:space="preserve">{{ items.mountPlaces }}</t>
   </si>
   <si>
-    <t xml:space="preserve">{{ items.mount }}</t>
+    <t xml:space="preserve">{{ items.quantity }}</t>
   </si>
   <si>
     <t xml:space="preserve">{{ items.price }}</t>
@@ -932,7 +932,7 @@
   <dimension ref="A1:AO48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+      <selection pane="topLeft" activeCell="V24" activeCellId="0" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -951,7 +951,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="6.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="5.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="0.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="4.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="4.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="1.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="6.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="0.66"/>
@@ -959,7 +959,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="2.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="3.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="1" width="3.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="8.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="8.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="2.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="1.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="4.66"/>

--- a/resources/views/document_torg12.xlsx
+++ b/resources/views/document_torg12.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="97">
   <si>
     <t xml:space="preserve">Унифицированная форма № ТОРГ-12
 Утверждена постановлением Госкомстата России от 25.12.98 № 132</t>
@@ -206,12 +206,24 @@
     <t xml:space="preserve">{{ items.totalPrice }}</t>
   </si>
   <si>
+    <t xml:space="preserve">Без НДС</t>
+  </si>
+  <si>
     <t xml:space="preserve">Итого</t>
   </si>
   <si>
+    <t xml:space="preserve">{{ИТОГО_НЕТТО}}</t>
+  </si>
+  <si>
     <t xml:space="preserve">Х</t>
   </si>
   <si>
+    <t xml:space="preserve">{{СУММА_БЕЗ_НДС}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{СУММА_С_НДС}}</t>
+  </si>
+  <si>
     <t xml:space="preserve">Всего по накладной</t>
   </si>
   <si>
@@ -222,6 +234,9 @@
   </si>
   <si>
     <t xml:space="preserve">Три</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{КОЛВО_ПРОДУКТОВ_ПРОПИСЬЮ}}</t>
   </si>
   <si>
     <t xml:space="preserve">порядковых номеров записей</t>
@@ -328,7 +343,7 @@
     <numFmt numFmtId="170" formatCode="#,##0.00"/>
     <numFmt numFmtId="171" formatCode="0\%"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -387,6 +402,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -599,7 +619,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -784,7 +804,7 @@
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -812,7 +832,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -820,15 +840,19 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -852,7 +876,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -860,6 +884,10 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -888,11 +916,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -932,7 +960,7 @@
   <dimension ref="A1:AO48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V24" activeCellId="0" sqref="V24"/>
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -965,7 +993,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="4.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="0.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="2.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="0.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="7.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="0.83"/>
@@ -1852,15 +1880,13 @@
       <c r="AB23" s="45"/>
       <c r="AC23" s="45"/>
       <c r="AD23" s="45"/>
-      <c r="AE23" s="46" t="n">
-        <v>18</v>
+      <c r="AE23" s="46" t="s">
+        <v>56</v>
       </c>
       <c r="AF23" s="46"/>
       <c r="AG23" s="46"/>
       <c r="AH23" s="46"/>
-      <c r="AI23" s="47" t="n">
-        <v>1350</v>
-      </c>
+      <c r="AI23" s="47"/>
       <c r="AJ23" s="47"/>
       <c r="AK23" s="47"/>
       <c r="AL23" s="48" t="s">
@@ -1886,45 +1912,43 @@
       <c r="N24" s="50"/>
       <c r="O24" s="50"/>
       <c r="P24" s="50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q24" s="51"/>
       <c r="R24" s="51"/>
       <c r="S24" s="52"/>
       <c r="T24" s="52"/>
       <c r="U24" s="52"/>
-      <c r="V24" s="53" t="n">
-        <v>90</v>
+      <c r="V24" s="53" t="s">
+        <v>58</v>
       </c>
       <c r="W24" s="53"/>
       <c r="X24" s="54" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y24" s="54"/>
-      <c r="Z24" s="55" t="n">
-        <v>22500</v>
+      <c r="Z24" s="55" t="s">
+        <v>60</v>
       </c>
       <c r="AA24" s="55"/>
       <c r="AB24" s="55"/>
       <c r="AC24" s="55"/>
       <c r="AD24" s="55"/>
       <c r="AE24" s="56" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AF24" s="56"/>
       <c r="AG24" s="56"/>
       <c r="AH24" s="56"/>
-      <c r="AI24" s="55" t="n">
-        <v>4050</v>
-      </c>
-      <c r="AJ24" s="55"/>
-      <c r="AK24" s="55"/>
-      <c r="AL24" s="57" t="n">
-        <v>26550</v>
-      </c>
-      <c r="AM24" s="57"/>
-      <c r="AN24" s="57"/>
-      <c r="AO24" s="57"/>
+      <c r="AI24" s="57"/>
+      <c r="AJ24" s="57"/>
+      <c r="AK24" s="57"/>
+      <c r="AL24" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM24" s="58"/>
+      <c r="AN24" s="58"/>
+      <c r="AO24" s="58"/>
     </row>
     <row r="25" s="27" customFormat="true" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="1"/>
@@ -1939,52 +1963,50 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="58" t="s">
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="63"/>
+      <c r="V25" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="61"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="62"/>
-      <c r="V25" s="63" t="n">
-        <v>90</v>
-      </c>
-      <c r="W25" s="63"/>
-      <c r="X25" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y25" s="64"/>
-      <c r="Z25" s="65" t="n">
-        <v>22500</v>
-      </c>
-      <c r="AA25" s="65"/>
-      <c r="AB25" s="65"/>
-      <c r="AC25" s="65"/>
-      <c r="AD25" s="65"/>
-      <c r="AE25" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF25" s="64"/>
-      <c r="AG25" s="64"/>
-      <c r="AH25" s="64"/>
-      <c r="AI25" s="65" t="n">
-        <v>4050</v>
-      </c>
-      <c r="AJ25" s="65"/>
-      <c r="AK25" s="65"/>
-      <c r="AL25" s="65" t="n">
-        <v>26550</v>
-      </c>
-      <c r="AM25" s="65"/>
-      <c r="AN25" s="65"/>
-      <c r="AO25" s="65"/>
+      <c r="W25" s="64"/>
+      <c r="X25" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y25" s="65"/>
+      <c r="Z25" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA25" s="66"/>
+      <c r="AB25" s="66"/>
+      <c r="AC25" s="66"/>
+      <c r="AD25" s="66"/>
+      <c r="AE25" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF25" s="65"/>
+      <c r="AG25" s="65"/>
+      <c r="AH25" s="65"/>
+      <c r="AI25" s="67"/>
+      <c r="AJ25" s="67"/>
+      <c r="AK25" s="67"/>
+      <c r="AL25" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM25" s="66"/>
+      <c r="AN25" s="66"/>
+      <c r="AO25" s="66"/>
     </row>
     <row r="26" customFormat="false" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E26" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -2002,12 +2024,14 @@
     </row>
     <row r="27" customFormat="false" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E27" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
@@ -2016,22 +2040,22 @@
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="66"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="68"/>
+      <c r="S27" s="68"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="true" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F28" s="11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -2051,20 +2075,20 @@
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
       <c r="X28" s="11"/>
-      <c r="AH28" s="67"/>
-      <c r="AI28" s="67"/>
-      <c r="AJ28" s="67"/>
-      <c r="AK28" s="67"/>
-      <c r="AL28" s="67"/>
-      <c r="AM28" s="67"/>
-      <c r="AN28" s="67"/>
+      <c r="AH28" s="69"/>
+      <c r="AI28" s="69"/>
+      <c r="AJ28" s="69"/>
+      <c r="AK28" s="69"/>
+      <c r="AL28" s="69"/>
+      <c r="AM28" s="69"/>
+      <c r="AN28" s="69"/>
     </row>
     <row r="29" s="1" customFormat="true" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="J29" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
@@ -2079,20 +2103,20 @@
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
       <c r="AF29" s="7"/>
-      <c r="AH29" s="67"/>
-      <c r="AI29" s="67"/>
-      <c r="AJ29" s="67"/>
-      <c r="AK29" s="67"/>
-      <c r="AL29" s="67"/>
-      <c r="AM29" s="67"/>
-      <c r="AN29" s="67"/>
+      <c r="AH29" s="69"/>
+      <c r="AI29" s="69"/>
+      <c r="AJ29" s="69"/>
+      <c r="AK29" s="69"/>
+      <c r="AL29" s="69"/>
+      <c r="AM29" s="69"/>
+      <c r="AN29" s="69"/>
     </row>
     <row r="30" s="1" customFormat="true" ht="8.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="T30" s="11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
@@ -2101,60 +2125,60 @@
       <c r="Y30" s="11"/>
       <c r="Z30" s="11"/>
       <c r="AA30" s="11"/>
-      <c r="AB30" s="68"/>
-      <c r="AC30" s="68"/>
-      <c r="AD30" s="68"/>
-      <c r="AE30" s="68"/>
-      <c r="AF30" s="68"/>
-      <c r="AH30" s="67"/>
-      <c r="AI30" s="67"/>
-      <c r="AJ30" s="67"/>
-      <c r="AK30" s="67"/>
-      <c r="AL30" s="67"/>
-      <c r="AM30" s="67"/>
-      <c r="AN30" s="67"/>
+      <c r="AB30" s="70"/>
+      <c r="AC30" s="70"/>
+      <c r="AD30" s="70"/>
+      <c r="AE30" s="70"/>
+      <c r="AF30" s="70"/>
+      <c r="AH30" s="69"/>
+      <c r="AI30" s="69"/>
+      <c r="AJ30" s="69"/>
+      <c r="AK30" s="69"/>
+      <c r="AL30" s="69"/>
+      <c r="AM30" s="69"/>
+      <c r="AN30" s="69"/>
     </row>
     <row r="31" s="1" customFormat="true" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E31" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="J31" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="T31" s="7"/>
-      <c r="U31" s="69"/>
-      <c r="V31" s="69"/>
-      <c r="W31" s="69"/>
-      <c r="X31" s="69"/>
-      <c r="Y31" s="69"/>
-      <c r="Z31" s="69"/>
-      <c r="AA31" s="69"/>
-      <c r="AB31" s="69"/>
-      <c r="AC31" s="69"/>
-      <c r="AD31" s="69"/>
-      <c r="AE31" s="69"/>
-      <c r="AF31" s="69"/>
+      <c r="U31" s="71"/>
+      <c r="V31" s="71"/>
+      <c r="W31" s="71"/>
+      <c r="X31" s="71"/>
+      <c r="Y31" s="71"/>
+      <c r="Z31" s="71"/>
+      <c r="AA31" s="71"/>
+      <c r="AB31" s="71"/>
+      <c r="AC31" s="71"/>
+      <c r="AD31" s="71"/>
+      <c r="AE31" s="71"/>
+      <c r="AF31" s="71"/>
       <c r="AG31" s="10"/>
-      <c r="AH31" s="67"/>
-      <c r="AI31" s="67"/>
-      <c r="AJ31" s="67"/>
-      <c r="AK31" s="67"/>
-      <c r="AL31" s="67"/>
-      <c r="AM31" s="67"/>
-      <c r="AN31" s="67"/>
+      <c r="AH31" s="69"/>
+      <c r="AI31" s="69"/>
+      <c r="AJ31" s="69"/>
+      <c r="AK31" s="69"/>
+      <c r="AL31" s="69"/>
+      <c r="AM31" s="69"/>
+      <c r="AN31" s="69"/>
     </row>
     <row r="32" s="1" customFormat="true" ht="8.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F32" s="11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="10"/>
       <c r="T32" s="11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="U32" s="11"/>
       <c r="V32" s="11"/>
@@ -2172,27 +2196,27 @@
     <row r="33" s="1" customFormat="true" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="34" s="1" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="J34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="S34" s="70"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="58" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="S34" s="72"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="59" t="s">
+        <v>74</v>
       </c>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7"/>
-      <c r="AC34" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD34" s="71"/>
-      <c r="AE34" s="71"/>
+      <c r="AC34" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD34" s="73"/>
+      <c r="AE34" s="73"/>
       <c r="AF34" s="7"/>
       <c r="AG34" s="7"/>
       <c r="AH34" s="7"/>
@@ -2205,23 +2229,23 @@
     </row>
     <row r="35" s="1" customFormat="true" ht="8.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G35" s="11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
-      <c r="S35" s="70"/>
+      <c r="S35" s="72"/>
     </row>
     <row r="36" s="1" customFormat="true" ht="9.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="S36" s="70"/>
+      <c r="B36" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="S36" s="72"/>
       <c r="U36" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
@@ -2241,28 +2265,28 @@
       <c r="AN36" s="7"/>
     </row>
     <row r="37" s="1" customFormat="true" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="73"/>
-      <c r="L37" s="73"/>
-      <c r="M37" s="73"/>
-      <c r="N37" s="73"/>
-      <c r="O37" s="73"/>
-      <c r="P37" s="73"/>
-      <c r="Q37" s="73"/>
-      <c r="R37" s="73"/>
-      <c r="S37" s="73"/>
+      <c r="B37" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="75"/>
+      <c r="N37" s="75"/>
+      <c r="O37" s="75"/>
+      <c r="P37" s="75"/>
+      <c r="Q37" s="75"/>
+      <c r="R37" s="75"/>
+      <c r="S37" s="75"/>
       <c r="Y37" s="11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="Z37" s="11"/>
       <c r="AA37" s="11"/>
@@ -2282,7 +2306,7 @@
     </row>
     <row r="38" s="1" customFormat="true" ht="9.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -2297,7 +2321,7 @@
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
-      <c r="S38" s="70"/>
+      <c r="S38" s="72"/>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
@@ -2317,25 +2341,25 @@
     </row>
     <row r="39" customFormat="false" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="74" t="s">
-        <v>76</v>
+        <v>80</v>
+      </c>
+      <c r="E39" s="76" t="s">
+        <v>81</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
-      <c r="J39" s="75" t="s">
-        <v>77</v>
-      </c>
-      <c r="K39" s="75"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="75"/>
-      <c r="N39" s="75"/>
-      <c r="O39" s="75"/>
-      <c r="P39" s="75"/>
-      <c r="Q39" s="75"/>
-      <c r="R39" s="75"/>
-      <c r="S39" s="75"/>
+      <c r="J39" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="K39" s="77"/>
+      <c r="L39" s="77"/>
+      <c r="M39" s="77"/>
+      <c r="N39" s="77"/>
+      <c r="O39" s="77"/>
+      <c r="P39" s="77"/>
+      <c r="Q39" s="77"/>
+      <c r="R39" s="77"/>
+      <c r="S39" s="77"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
       <c r="AA39" s="7"/>
@@ -2355,47 +2379,47 @@
     </row>
     <row r="40" s="1" customFormat="true" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E40" s="11" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H40" s="11"/>
-      <c r="J40" s="76" t="s">
-        <v>80</v>
-      </c>
-      <c r="K40" s="76"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="76"/>
-      <c r="N40" s="76"/>
-      <c r="O40" s="76"/>
-      <c r="P40" s="76"/>
-      <c r="Q40" s="76"/>
-      <c r="R40" s="76"/>
-      <c r="S40" s="76"/>
+      <c r="J40" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="K40" s="78"/>
+      <c r="L40" s="78"/>
+      <c r="M40" s="78"/>
+      <c r="N40" s="78"/>
+      <c r="O40" s="78"/>
+      <c r="P40" s="78"/>
+      <c r="Q40" s="78"/>
+      <c r="R40" s="78"/>
+      <c r="S40" s="78"/>
     </row>
     <row r="41" s="1" customFormat="true" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
+      <c r="B41" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
-      <c r="J41" s="75" t="s">
-        <v>77</v>
-      </c>
-      <c r="K41" s="75"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="75"/>
-      <c r="N41" s="75"/>
-      <c r="O41" s="75"/>
-      <c r="P41" s="75"/>
-      <c r="Q41" s="75"/>
-      <c r="R41" s="75"/>
-      <c r="S41" s="75"/>
+      <c r="J41" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="K41" s="77"/>
+      <c r="L41" s="77"/>
+      <c r="M41" s="77"/>
+      <c r="N41" s="77"/>
+      <c r="O41" s="77"/>
+      <c r="P41" s="77"/>
+      <c r="Q41" s="77"/>
+      <c r="R41" s="77"/>
+      <c r="S41" s="77"/>
       <c r="U41" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
@@ -2414,34 +2438,34 @@
     </row>
     <row r="42" s="1" customFormat="true" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G42" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H42" s="11"/>
-      <c r="J42" s="76" t="s">
-        <v>80</v>
-      </c>
-      <c r="K42" s="76"/>
-      <c r="L42" s="76"/>
-      <c r="M42" s="76"/>
-      <c r="N42" s="76"/>
-      <c r="O42" s="76"/>
-      <c r="P42" s="76"/>
-      <c r="Q42" s="76"/>
-      <c r="R42" s="76"/>
-      <c r="S42" s="76"/>
+      <c r="J42" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="K42" s="78"/>
+      <c r="L42" s="78"/>
+      <c r="M42" s="78"/>
+      <c r="N42" s="78"/>
+      <c r="O42" s="78"/>
+      <c r="P42" s="78"/>
+      <c r="Q42" s="78"/>
+      <c r="R42" s="78"/>
+      <c r="S42" s="78"/>
       <c r="Y42" s="11" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="Z42" s="11"/>
       <c r="AB42" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AC42" s="11"/>
       <c r="AD42" s="11"/>
       <c r="AE42" s="11"/>
       <c r="AF42" s="11"/>
       <c r="AH42" s="11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI42" s="11"/>
       <c r="AJ42" s="11"/>
@@ -2452,23 +2476,23 @@
     </row>
     <row r="43" s="1" customFormat="true" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E43" s="5"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="75"/>
-      <c r="N43" s="75"/>
-      <c r="O43" s="75"/>
-      <c r="P43" s="75"/>
-      <c r="Q43" s="75"/>
-      <c r="R43" s="75"/>
-      <c r="S43" s="75"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="77"/>
+      <c r="L43" s="77"/>
+      <c r="M43" s="77"/>
+      <c r="N43" s="77"/>
+      <c r="O43" s="77"/>
+      <c r="P43" s="77"/>
+      <c r="Q43" s="77"/>
+      <c r="R43" s="77"/>
+      <c r="S43" s="77"/>
       <c r="U43" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="Y43" s="7"/>
       <c r="Z43" s="7"/>
@@ -2487,41 +2511,41 @@
     </row>
     <row r="44" customFormat="false" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E44" s="11" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H44" s="11"/>
-      <c r="J44" s="76" t="s">
-        <v>80</v>
-      </c>
-      <c r="K44" s="76"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="76"/>
-      <c r="N44" s="76"/>
-      <c r="O44" s="76"/>
-      <c r="P44" s="76"/>
-      <c r="Q44" s="76"/>
-      <c r="R44" s="76"/>
-      <c r="S44" s="76"/>
-      <c r="U44" s="77" t="s">
+      <c r="J44" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="V44" s="77"/>
+      <c r="K44" s="78"/>
+      <c r="L44" s="78"/>
+      <c r="M44" s="78"/>
+      <c r="N44" s="78"/>
+      <c r="O44" s="78"/>
+      <c r="P44" s="78"/>
+      <c r="Q44" s="78"/>
+      <c r="R44" s="78"/>
+      <c r="S44" s="78"/>
+      <c r="U44" s="79" t="s">
+        <v>90</v>
+      </c>
+      <c r="V44" s="79"/>
       <c r="Y44" s="11" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="Z44" s="11"/>
       <c r="AB44" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AC44" s="11"/>
       <c r="AD44" s="11"/>
       <c r="AE44" s="11"/>
       <c r="AF44" s="11"/>
       <c r="AH44" s="11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI44" s="11"/>
       <c r="AJ44" s="11"/>
@@ -2531,34 +2555,34 @@
       <c r="AN44" s="11"/>
     </row>
     <row r="45" s="1" customFormat="true" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="S45" s="70"/>
+      <c r="S45" s="72"/>
     </row>
     <row r="46" customFormat="false" ht="11.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="E46" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="F46" s="58" t="s">
-        <v>88</v>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" s="59" t="s">
+        <v>93</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="S46" s="70"/>
-      <c r="W46" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="X46" s="71"/>
+        <v>95</v>
+      </c>
+      <c r="S46" s="72"/>
+      <c r="W46" s="73" t="s">
+        <v>91</v>
+      </c>
+      <c r="X46" s="73"/>
       <c r="AA46" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
